--- a/output/1_input.xlsx
+++ b/output/1_input.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,423 +412,415 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> 현재가 (거래량%) (NaNK)</v>
+        <v>↑ 소프트센우 (+30.00%%) (17K)</v>
       </c>
       <c r="B2" t="str">
-        <v>시가</v>
+        <v>16,945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6,150 26,650 (16,945%) (25K)</v>
+        <v>↑ 케이티알파 (+29.93%%) (7586K)</v>
       </c>
       <c r="B3" t="str">
-        <v>24,500</v>
+        <v>7,586,254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>1,790 7,770 (7,586,254%) (7K)</v>
+        <v>▲ 셀바스AI (+26.42%%) (18839K)</v>
       </c>
       <c r="B4" t="str">
-        <v>6,540</v>
+        <v>18,839,253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2,330 11,150 (18,839,253%) (10K)</v>
+        <v>▲ 로보스타 (+26.35%%) (6935K)</v>
       </c>
       <c r="B5" t="str">
-        <v>9,540</v>
+        <v>6,935,065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>5,600 26,850 (6,935,065%) (21K)</v>
+        <v>▲ 태양금속우 (+23.06%%) (5152K)</v>
       </c>
       <c r="B6" t="str">
-        <v>21,450</v>
+        <v>5,152,439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>730 3,895 (5,152,439%) (3K)</v>
+        <v>▲ 플레이디 (+23.02%%) (6521K)</v>
       </c>
       <c r="B7" t="str">
-        <v>3,120</v>
+        <v>6,520,932</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>1,190 6,360 (6,520,932%) (5K)</v>
+        <v>▲ KTcs (+20.37%%) (20505K)</v>
       </c>
       <c r="B8" t="str">
-        <v>5,190</v>
+        <v>20,504,765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>445 2,630 (20,504,765%) (2K)</v>
+        <v>▲ 웨이버스 (+17.51%%) (61021K)</v>
       </c>
       <c r="B9" t="str">
-        <v>2,305</v>
+        <v>61,021,497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>295 1,980 (61,021,497%) (2K)</v>
+        <v>▲ 딥노이드 (+16.59%%) (2122K)</v>
       </c>
       <c r="B10" t="str">
-        <v>1,745</v>
+        <v>2,122,132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>1,070 7,520 (2,122,132%) (6K)</v>
+        <v>▲ 밸로프 (+15.14%%) (71754K)</v>
       </c>
       <c r="B11" t="str">
-        <v>6,450</v>
+        <v>71,754,140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>240 1,825 (71,754,140%) (2K)</v>
+        <v>▲ 에어부산 (+14.89%%) (8265K)</v>
       </c>
       <c r="B12" t="str">
-        <v>1,645</v>
+        <v>8,265,215</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>490 3,780 (8,265,215%) (3K)</v>
+        <v>▲ 노블엠앤비 (+14.66%%) (2707K)</v>
       </c>
       <c r="B13" t="str">
-        <v>3,310</v>
+        <v>2,707,296</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>255 1,995 (2,707,296%) (2K)</v>
+        <v>▲ 오픈엣지테크놀로지 (+14.54%%) (11012K)</v>
       </c>
       <c r="B14" t="str">
-        <v>1,765</v>
+        <v>11,012,427</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>1,650 13,000 (11,012,427%) (12K)</v>
+        <v>▲ 알비더블유 (+14.23%%) (697K)</v>
       </c>
       <c r="B15" t="str">
-        <v>11,500</v>
+        <v>696,559</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>1,900 15,250 (696,559%) (13K)</v>
+        <v>▲ 흥국화재2우B (+14.13%%) (14K)</v>
       </c>
       <c r="B16" t="str">
-        <v>13,300</v>
+        <v>13,775</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2,650 21,400 (13,775%) (19K)</v>
+        <v>▲ 이지케어텍 (+11.65%%) (1201K)</v>
       </c>
       <c r="B17" t="str">
-        <v>18,750</v>
+        <v>1,200,811</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2,750 26,350 (1,200,811%) (24K)</v>
+        <v>▲ 원티드랩 (+11.15%%) (676K)</v>
       </c>
       <c r="B18" t="str">
-        <v>23,950</v>
+        <v>676,028</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>1,450 14,450 (676,028%) (13K)</v>
+        <v>▲ 한컴위드 (+10.66%%) (19850K)</v>
       </c>
       <c r="B19" t="str">
-        <v>12,900</v>
+        <v>19,849,645</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>530 5,500 (19,849,645%) (5K)</v>
+        <v>▲ 티웨이홀딩스 (+10.59%%) (3753K)</v>
       </c>
       <c r="B20" t="str">
-        <v>5,050</v>
+        <v>3,753,130</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>63 658 (3,753,130%) (1K)</v>
+        <v>▲ 로보로보 (+9.60%%) (11972K)</v>
       </c>
       <c r="B21" t="str">
-        <v>612</v>
+        <v>11,971,566</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>670 7,650 (11,971,566%) (7K)</v>
+        <v>▲ 신테카바이오 (+9.57%%) (554K)</v>
       </c>
       <c r="B22" t="str">
-        <v>7,070</v>
+        <v>554,322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>900 10,300 (554,322%) (10K)</v>
+        <v>▲ 인크로스 (+9.56%%) (600K)</v>
       </c>
       <c r="B23" t="str">
-        <v>9,500</v>
+        <v>600,062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>1,300 14,900 (600,062%) (13K)</v>
+        <v>▲ 엠벤처투자 (+9.47%%) (6086K)</v>
       </c>
       <c r="B24" t="str">
-        <v>13,450</v>
+        <v>6,085,971</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>90 1,040 (6,085,971%) (1K)</v>
+        <v>▲ 이랜텍 (+9.45%%) (3032K)</v>
       </c>
       <c r="B25" t="str">
-        <v>978</v>
+        <v>3,032,189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>1,200 13,900 (3,032,189%) (13K)</v>
+        <v>▲ 이스트소프트 (+9.09%%) (906K)</v>
       </c>
       <c r="B26" t="str">
-        <v>13,000</v>
+        <v>905,819</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>950 11,400 (905,819%) (11K)</v>
+        <v>▲ 가온칩스 (+9.09%%) (1143K)</v>
       </c>
       <c r="B27" t="str">
-        <v>11,100</v>
+        <v>1,142,739</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>1,600 19,200 (1,142,739%) (17K)</v>
+        <v>▲ 유니온커뮤니티 (+8.81%%) (3110K)</v>
       </c>
       <c r="B28" t="str">
-        <v>17,450</v>
+        <v>3,110,065</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>295 3,645 (3,110,065%) (3K)</v>
+        <v>▲ 트윔 (+8.73%%) (285K)</v>
       </c>
       <c r="B29" t="str">
-        <v>3,400</v>
+        <v>285,222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>1,450 18,050 (285,222%) (17K)</v>
+        <v>▲ 씨이랩 (+8.72%%) (1039K)</v>
       </c>
       <c r="B30" t="str">
-        <v>16,750</v>
+        <v>1,038,965</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>1,400 17,450 (1,038,965%) (16K)</v>
+        <v>▲ 윈텍 (+8.70%%) (868K)</v>
       </c>
       <c r="B31" t="str">
-        <v>16,450</v>
+        <v>868,019</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>240 3,000 (868,019%) (3K)</v>
+        <v>▲ 아나패스 (+8.57%%) (252K)</v>
       </c>
       <c r="B32" t="str">
-        <v>2,760</v>
+        <v>252,270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>1,500 19,000 (252,270%) (18K)</v>
+        <v>▲ 해성티피씨 (+8.50%%) (5065K)</v>
       </c>
       <c r="B33" t="str">
-        <v>18,000</v>
+        <v>5,065,295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>520 6,640 (5,065,295%) (6K)</v>
+        <v>▲ 와이더플래닛 (+8.36%%) (204K)</v>
       </c>
       <c r="B34" t="str">
-        <v>6,180</v>
+        <v>204,423</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>460 5,960 (204,423%) (6K)</v>
+        <v>▲ 솔트웨어 (+8.27%%) (6843K)</v>
       </c>
       <c r="B35" t="str">
-        <v>5,530</v>
+        <v>6,843,171</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>105 1,375 (6,843,171%) (1K)</v>
+        <v>▲ 셀바스헬스케어 (+8.08%%) (7705K)</v>
       </c>
       <c r="B36" t="str">
-        <v>1,285</v>
+        <v>7,704,994</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>175 2,340 (7,704,994%) (2K)</v>
+        <v>▲ 비덴트 (+6.11%%) (15924K)</v>
       </c>
       <c r="B37" t="str">
-        <v>2,190</v>
+        <v>15,923,606</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>265 4,605 (15,923,606%) (4K)</v>
+        <v>▲ 드래곤플라이 (+5.54%%) (10678K)</v>
       </c>
       <c r="B38" t="str">
-        <v>4,345</v>
+        <v>10,677,767</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>44 838 (10,677,767%) (1K)</v>
+        <v>▲ 조이시티 (+5.52%%) (11624K)</v>
       </c>
       <c r="B39" t="str">
-        <v>800</v>
+        <v>11,623,756</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>270 5,160 (11,623,756%) (5K)</v>
+        <v>▲ 지엔원에너지 (+3.89%%) (15376K)</v>
       </c>
       <c r="B40" t="str">
-        <v>4,865</v>
+        <v>15,376,257</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>160 4,275 (15,376,257%) (4K)</v>
+        <v>▲ 미스터블루 (+2.29%%) (37270K)</v>
       </c>
       <c r="B41" t="str">
-        <v>4,110</v>
+        <v>37,269,651</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>80 3,580 (37,269,651%) (4K)</v>
+        <v>▲ 베트남개발1 (+1.91%%) (205919K)</v>
       </c>
       <c r="B42" t="str">
-        <v>3,560</v>
+        <v>205,918,758</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>4 213 (205,918,758%) (0K)</v>
+        <v>▲ 다올인베스트먼트 (+1.68%%) (41993K)</v>
       </c>
       <c r="B43" t="str">
-        <v>211</v>
+        <v>41,993,060</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>60 3,630 (41,993,060%) (4K)</v>
+        <v xml:space="preserve">  나노 (0%%) (11892K)</v>
       </c>
       <c r="B44" t="str">
-        <v>3,920</v>
+        <v>11,891,916</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0 1,495 (11,891,916%) (2K)</v>
+        <v>▼ 휴림로봇 (-0.19%%) (34177K)</v>
       </c>
       <c r="B45" t="str">
-        <v>1,520</v>
+        <v>34,177,375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>-5 2,680 (34,177,375%) (3K)</v>
+        <v>▼ 삼성전자 (-0.98%%) (11493K)</v>
       </c>
       <c r="B46" t="str">
-        <v>2,720</v>
+        <v>11,492,737</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>-600 60,400 (11,492,737%) (61K)</v>
+        <v>▼ 스킨앤스킨 (-1.71%%) (10599K)</v>
       </c>
       <c r="B47" t="str">
-        <v>60,700</v>
+        <v>10,598,589</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>-4 230 (10,598,589%) (0K)</v>
+        <v>▼ 알로이스 (-2.86%%) (13356K)</v>
       </c>
       <c r="B48" t="str">
-        <v>235</v>
+        <v>13,355,520</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>-60 2,035 (13,355,520%) (2K)</v>
+        <v>▼ 옵티코어 (-3.32%%) (18890K)</v>
       </c>
       <c r="B49" t="str">
-        <v>2,235</v>
+        <v>18,890,376</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>-115 3,345 (18,890,376%) (4K)</v>
+        <v>▼ 한국테크놀로지 (-6.42%%) (44551K)</v>
       </c>
       <c r="B50" t="str">
-        <v>3,635</v>
+        <v>44,550,722</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>-33 481 (44,550,722%) (1K)</v>
+        <v>▼ 쌍방울 (-6.51%%) (17698K)</v>
       </c>
       <c r="B51" t="str">
-        <v>514</v>
+        <v>17,698,072</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>-25 359 (17,698,072%) (0K)</v>
+        <v>▼ 한국ANKOR유전 (-16.47%%) (23156K)</v>
       </c>
       <c r="B52" t="str">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>-41 208 (23,156,205%) (0K)</v>
-      </c>
-      <c r="B53" t="str">
-        <v>242</v>
+        <v>23,156,205</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B52"/>
   </ignoredErrors>
 </worksheet>
 </file>